--- a/input/resources/source-data/DEQM_Capability_Statement_GIC_Receiver_Server.xlsx
+++ b/input/resources/source-data/DEQM_Capability_Statement_GIC_Receiver_Server.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-DEQM\input\resources\source-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71863BD0-CEDB-4BF9-A85B-1F9A366E67EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C12D3D-63B5-42A8-AC9A-AAE5EF11956A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-465" windowWidth="19440" windowHeight="15000" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="-19320" yWindow="-465" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
-    <sheet name="meta" sheetId="1" r:id="rId1"/>
-    <sheet name="igs" sheetId="8" r:id="rId2"/>
-    <sheet name="profiles" sheetId="2" r:id="rId3"/>
-    <sheet name="resources" sheetId="3" r:id="rId4"/>
-    <sheet name="ops" sheetId="7" r:id="rId5"/>
-    <sheet name="interactions" sheetId="5" r:id="rId6"/>
-    <sheet name="config" sheetId="11" r:id="rId7"/>
+    <sheet name="config" sheetId="11" r:id="rId1"/>
+    <sheet name="meta" sheetId="1" r:id="rId2"/>
+    <sheet name="igs" sheetId="8" r:id="rId3"/>
+    <sheet name="profiles" sheetId="2" r:id="rId4"/>
+    <sheet name="resources" sheetId="3" r:id="rId5"/>
+    <sheet name="ops" sheetId="7" r:id="rId6"/>
+    <sheet name="interactions" sheetId="5" r:id="rId7"/>
     <sheet name="sps" sheetId="4" r:id="rId8"/>
     <sheet name="rest_interactions" sheetId="9" r:id="rId9"/>
     <sheet name="sp_combos" sheetId="10" r:id="rId10"/>
@@ -418,9 +418,6 @@
     <t>1.1.0</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/ImplementationGuide/hl7.fhir.us.davinci-deqm-1.1.0</t>
-  </si>
-  <si>
     <t>!http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/subscription-deqm</t>
   </si>
   <si>
@@ -503,9 +500,6 @@
   </si>
   <si>
     <t>canon</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/</t>
   </si>
   <si>
     <t>publisher</t>
@@ -550,6 +544,12 @@
   </si>
   <si>
     <t>gic-receiver-server</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/ImplementationGuide/hl7.fhir.us.davinci-deqm|1.1.0</t>
   </si>
 </sst>
 </file>
@@ -1001,22 +1001,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15F3286-55C1-40D0-93FC-C97EF26956B8}">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08CB706-5275-4D8E-902B-F28C785CE0C7}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="95.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1024,66 +1020,58 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
+      </c>
+      <c r="B5" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>114</v>
+        <v>142</v>
+      </c>
+      <c r="B6" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
+      </c>
+      <c r="B8" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1164,6 +1152,97 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15F3286-55C1-40D0-93FC-C97EF26956B8}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="95.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0829A918-BBB6-6345-897C-371FBE4213DF}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1189,7 +1268,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1197,15 +1276,15 @@
         <v>71</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1213,7 +1292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B139EF60-0633-48C5-B394-C56F006BD6B3}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -1245,7 +1324,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -1259,7 +1338,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -1273,7 +1352,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
@@ -1287,7 +1366,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -1301,7 +1380,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -1315,7 +1394,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
         <v>61</v>
@@ -1329,7 +1408,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s">
         <v>62</v>
@@ -1343,7 +1422,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
         <v>63</v>
@@ -1357,7 +1436,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
         <v>68</v>
@@ -1371,7 +1450,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -1385,7 +1464,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
@@ -1399,7 +1478,7 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s">
         <v>74</v>
@@ -1413,10 +1492,10 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>129</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1427,16 +1506,16 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>131</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1449,7 +1528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ACB4CFA-AAEF-4FC6-A49B-107CEE80A317}">
   <dimension ref="A1:X3"/>
   <sheetViews>
@@ -1561,7 +1640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BD6ECC-0BFD-4409-A93E-9F9ABC9C3BE7}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -1599,10 +1678,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" t="s">
         <v>134</v>
-      </c>
-      <c r="B2" t="s">
-        <v>135</v>
       </c>
       <c r="C2" t="s">
         <v>75</v>
@@ -1620,7 +1699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E2E280-092F-4777-8984-8212A8DAB750}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -1695,85 +1774,6 @@
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08CB706-5275-4D8E-902B-F28C785CE0C7}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B8" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/input/resources/source-data/DEQM_Capability_Statement_GIC_Receiver_Server.xlsx
+++ b/input/resources/source-data/DEQM_Capability_Statement_GIC_Receiver_Server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-DEQM\input\resources\source-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\davinci-deqm\input\resources\source-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C12D3D-63B5-42A8-AC9A-AAE5EF11956A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EA0E2A-A62B-4DA6-A8BA-1754F3B5BF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-465" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="3312" yWindow="1020" windowWidth="26052" windowHeight="15240" activeTab="3" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="11" r:id="rId1"/>
@@ -32,7 +32,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -262,9 +265,6 @@
     <t>DEQM DeviceUseStatement Profile</t>
   </si>
   <si>
-    <t>DEQM Organization Profile</t>
-  </si>
-  <si>
     <t>DEQM Coverage Profile</t>
   </si>
   <si>
@@ -415,9 +415,6 @@
     <t>date,token</t>
   </si>
   <si>
-    <t>1.1.0</t>
-  </si>
-  <si>
     <t>!http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/subscription-deqm</t>
   </si>
   <si>
@@ -437,9 +434,6 @@
   </si>
   <si>
     <t>!http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/deviceusestatement-deqm</t>
-  </si>
-  <si>
-    <t>!http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/organization-deqm</t>
   </si>
   <si>
     <t>!http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/coverage-deqm</t>
@@ -540,16 +534,25 @@
     <t>http://hl7.org/fhir/us/qicore/ImplementationGuide/hl7.fhir.us.qicore|4.0.0</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/cqfmeasures/ImplementationGuide/hl7.fhir.us.cqfmeasures|2.0.0</t>
-  </si>
-  <si>
     <t>gic-receiver-server</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/davinci-deqm/</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/ImplementationGuide/hl7.fhir.us.davinci-deqm|1.1.0</t>
+    <t>3.1.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/ImplementationGuide/hl7.fhir.us.davinci-deqm|3.1.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/cqfmeasures/ImplementationGuide/hl7.fhir.us.cqfmeasures|3.0.0</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/qicore/StructureDefinition/qicore-organization</t>
+  </si>
+  <si>
+    <t>QI Core Organization Profile</t>
   </si>
 </sst>
 </file>
@@ -563,12 +566,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF032F62"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -607,6 +604,11 @@
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -665,7 +667,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -677,15 +679,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1008,9 +1010,9 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -1018,60 +1020,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" t="s">
         <v>135</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
         <v>137</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>139</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>141</v>
       </c>
-      <c r="B5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
         <v>142</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B8" t="s">
         <v>144</v>
-      </c>
-      <c r="B7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B8" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1087,61 +1089,61 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2" si="0">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B2)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
       <c r="D2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" t="s">
         <v>111</v>
       </c>
-      <c r="E2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J2" s="7" t="str">
+      <c r="J2" s="6" t="str">
         <f t="shared" ref="J2" si="1">"Fetches a bundle of all "&amp;B2&amp;" resources matching the specified "&amp;SUBSTITUTE(D2,","," and ")</f>
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date</v>
       </c>
@@ -1155,17 +1157,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15F3286-55C1-40D0-93FC-C97EF26956B8}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="95.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="95.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1173,47 +1175,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>72</v>
       </c>
-      <c r="B3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>73</v>
-      </c>
       <c r="B4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1221,20 +1223,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1247,48 +1249,49 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="69" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>45</v>
       </c>
       <c r="B1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>70</v>
       </c>
-      <c r="B2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1296,19 +1299,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B139EF60-0633-48C5-B394-C56F006BD6B3}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="98.42578125" customWidth="1"/>
-    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="98.44140625" customWidth="1"/>
+    <col min="2" max="2" width="60.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1322,9 +1325,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -1336,9 +1339,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -1350,12 +1353,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1364,12 +1367,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1378,9 +1381,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -1392,9 +1395,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
         <v>61</v>
@@ -1406,12 +1409,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1420,12 +1423,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1434,12 +1437,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1448,12 +1451,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1462,12 +1465,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1476,26 +1479,26 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>128</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1504,18 +1507,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>130</v>
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1536,19 +1539,19 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1562,75 +1565,75 @@
         <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
         <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H1" t="s">
         <v>38</v>
       </c>
       <c r="I1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" t="s">
         <v>78</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>79</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>80</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>81</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>82</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>83</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>84</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>85</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>86</v>
       </c>
       <c r="R1" t="s">
         <v>28</v>
       </c>
       <c r="S1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="X1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C3" s="2"/>
     </row>
   </sheetData>
@@ -1651,15 +1654,15 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -1676,21 +1679,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
     </row>
   </sheetData>
@@ -1707,71 +1710,71 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
       <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
         <v>92</v>
       </c>
-      <c r="C1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1789,21 +1792,21 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="63.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="34.7109375" customWidth="1"/>
-    <col min="9" max="15" width="9.140625" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" customWidth="1"/>
-    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="4" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="8" max="8" width="34.6640625" customWidth="1"/>
+    <col min="9" max="15" width="9.109375" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" customWidth="1"/>
+    <col min="17" max="17" width="20.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1856,7 +1859,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
     </row>
   </sheetData>
@@ -1872,13 +1875,13 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1886,42 +1889,42 @@
         <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>96</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>98</v>
       </c>
-      <c r="B3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>99</v>
       </c>
-      <c r="B4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>100</v>
-      </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="1"/>
     </row>
